--- a/data/v1/data_sub0.xlsx
+++ b/data/v1/data_sub0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\v1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\code_tesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6569C2DF-0BC5-4B8E-B7B2-239AF9E7AC0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531D5467-31D9-40D4-A6EC-0F915570FDF1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1188" yWindow="-108" windowWidth="21960" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -793,10 +793,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -808,9 +811,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:AJ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,7 +1179,7 @@
     <col min="3" max="3" width="7.21875" customWidth="1"/>
     <col min="4" max="4" width="7.77734375" customWidth="1"/>
     <col min="5" max="5" width="6.21875" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
     <col min="7" max="7" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.88671875" bestFit="1" customWidth="1"/>
@@ -1213,128 +1213,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="24" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="22" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22" t="s">
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="24" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24" t="s">
+      <c r="N2" s="25"/>
+      <c r="O2" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24" t="s">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="23"/>
-      <c r="S2" s="22" t="s">
+      <c r="R2" s="25"/>
+      <c r="S2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22" t="s">
+      <c r="T2" s="26"/>
+      <c r="U2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="22"/>
-      <c r="W2" s="23" t="s">
+      <c r="V2" s="26"/>
+      <c r="W2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="23" t="s">
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22" t="s">
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22" t="s">
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="23" t="s">
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AJ2" s="22"/>
+      <c r="AJ2" s="26"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -1447,11 +1447,11 @@
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>30</v>
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1549,7 +1549,7 @@
       <c r="AH4" s="17">
         <v>50</v>
       </c>
-      <c r="AI4" s="28" t="s">
+      <c r="AI4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="AJ4" s="20">
@@ -1557,11 +1557,11 @@
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3</v>
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -1659,7 +1659,7 @@
       <c r="AH5" s="3">
         <v>200</v>
       </c>
-      <c r="AI5" s="27" t="s">
+      <c r="AI5" s="22" t="s">
         <v>5</v>
       </c>
       <c r="AJ5" s="4">
@@ -1667,11 +1667,11 @@
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>50</v>
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -1777,11 +1777,11 @@
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>100</v>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
@@ -1887,11 +1887,11 @@
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>200</v>
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>4</v>
@@ -1989,7 +1989,7 @@
       <c r="AH8" s="3">
         <v>30</v>
       </c>
-      <c r="AI8" s="27" t="s">
+      <c r="AI8" s="22" t="s">
         <v>12</v>
       </c>
       <c r="AJ8" s="4">
@@ -1997,11 +1997,11 @@
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>10</v>
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>8</v>
@@ -2107,11 +2107,11 @@
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>50</v>
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
@@ -2217,11 +2217,11 @@
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>200</v>
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>8</v>
@@ -2327,10 +2327,10 @@
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2429,7 +2429,7 @@
       <c r="AH12" s="3">
         <v>30</v>
       </c>
-      <c r="AI12" s="27" t="s">
+      <c r="AI12" s="22" t="s">
         <v>15</v>
       </c>
       <c r="AJ12" s="4">
@@ -2437,11 +2437,11 @@
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3">
-        <v>3</v>
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>6</v>
@@ -2539,7 +2539,7 @@
       <c r="AH13" s="3">
         <v>50</v>
       </c>
-      <c r="AI13" s="27" t="s">
+      <c r="AI13" s="22" t="s">
         <v>10</v>
       </c>
       <c r="AJ13" s="4">
@@ -2547,11 +2547,11 @@
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3">
-        <v>100</v>
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>3</v>
@@ -2649,7 +2649,7 @@
       <c r="AH14" s="3">
         <v>200</v>
       </c>
-      <c r="AI14" s="27" t="s">
+      <c r="AI14" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AJ14" s="4">
@@ -2657,11 +2657,11 @@
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3">
-        <v>10</v>
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>5</v>
@@ -2759,7 +2759,7 @@
       <c r="AH15" s="3">
         <v>100</v>
       </c>
-      <c r="AI15" s="27" t="s">
+      <c r="AI15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="AJ15" s="4">
@@ -2767,11 +2767,11 @@
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3">
-        <v>3</v>
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -2869,7 +2869,7 @@
       <c r="AH16" s="3">
         <v>100</v>
       </c>
-      <c r="AI16" s="27" t="s">
+      <c r="AI16" s="22" t="s">
         <v>3</v>
       </c>
       <c r="AJ16" s="4">
@@ -2877,11 +2877,11 @@
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="3">
-        <v>100</v>
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -2987,11 +2987,11 @@
       </c>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="3">
-        <v>10</v>
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>14</v>
@@ -3089,7 +3089,7 @@
       <c r="AH18" s="3">
         <v>50</v>
       </c>
-      <c r="AI18" s="27" t="s">
+      <c r="AI18" s="22" t="s">
         <v>5</v>
       </c>
       <c r="AJ18" s="4">
@@ -3097,11 +3097,11 @@
       </c>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3">
-        <v>30</v>
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>12</v>
@@ -3199,7 +3199,7 @@
       <c r="AH19" s="3">
         <v>200</v>
       </c>
-      <c r="AI19" s="27" t="s">
+      <c r="AI19" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AJ19" s="4">
@@ -3207,10 +3207,10 @@
       </c>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
         <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -3317,11 +3317,11 @@
       </c>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="3">
-        <v>200</v>
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>5</v>
@@ -3419,7 +3419,7 @@
       <c r="AH21" s="3">
         <v>30</v>
       </c>
-      <c r="AI21" s="27" t="s">
+      <c r="AI21" s="22" t="s">
         <v>15</v>
       </c>
       <c r="AJ21" s="4">
@@ -3427,11 +3427,11 @@
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3">
-        <v>30</v>
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
@@ -3529,7 +3529,7 @@
       <c r="AH22" s="3">
         <v>30</v>
       </c>
-      <c r="AI22" s="27" t="s">
+      <c r="AI22" s="22" t="s">
         <v>3</v>
       </c>
       <c r="AJ22" s="4">
@@ -3537,11 +3537,11 @@
       </c>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3">
-        <v>50</v>
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>3</v>
@@ -3639,7 +3639,7 @@
       <c r="AH23" s="3">
         <v>50</v>
       </c>
-      <c r="AI23" s="27" t="s">
+      <c r="AI23" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AJ23" s="4">
@@ -3647,10 +3647,10 @@
       </c>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -3749,7 +3749,7 @@
       <c r="AH24" s="3">
         <v>100</v>
       </c>
-      <c r="AI24" s="27" t="s">
+      <c r="AI24" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AJ24" s="4">
@@ -3757,11 +3757,11 @@
       </c>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="3">
-        <v>200</v>
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
@@ -3867,11 +3867,11 @@
       </c>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="3">
-        <v>10</v>
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>6</v>
@@ -3969,7 +3969,7 @@
       <c r="AH26" s="3">
         <v>200</v>
       </c>
-      <c r="AI26" s="27" t="s">
+      <c r="AI26" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AJ26" s="4">
@@ -3977,11 +3977,11 @@
       </c>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="3">
-        <v>100</v>
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
@@ -4087,11 +4087,11 @@
       </c>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3">
-        <v>30</v>
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>14</v>
@@ -4189,7 +4189,7 @@
       <c r="AH28" s="3">
         <v>200</v>
       </c>
-      <c r="AI28" s="27" t="s">
+      <c r="AI28" s="22" t="s">
         <v>13</v>
       </c>
       <c r="AJ28" s="4">
@@ -4197,11 +4197,11 @@
       </c>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3">
-        <v>200</v>
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>50</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>5</v>
@@ -4307,11 +4307,11 @@
       </c>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3">
-        <v>10</v>
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>100</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>15</v>
@@ -4409,7 +4409,7 @@
       <c r="AH30" s="3">
         <v>50</v>
       </c>
-      <c r="AI30" s="27" t="s">
+      <c r="AI30" s="22" t="s">
         <v>10</v>
       </c>
       <c r="AJ30" s="4">
@@ -4417,11 +4417,11 @@
       </c>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="3">
-        <v>50</v>
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>9</v>
@@ -4527,11 +4527,11 @@
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="3">
-        <v>100</v>
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>5</v>
@@ -4629,7 +4629,7 @@
       <c r="AH32" s="3">
         <v>30</v>
       </c>
-      <c r="AI32" s="27" t="s">
+      <c r="AI32" s="22" t="s">
         <v>10</v>
       </c>
       <c r="AJ32" s="4">
@@ -4637,10 +4637,10 @@
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="8">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
         <v>3</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -4739,7 +4739,7 @@
       <c r="AH33" s="8">
         <v>100</v>
       </c>
-      <c r="AI33" s="29" t="s">
+      <c r="AI33" s="24" t="s">
         <v>3</v>
       </c>
       <c r="AJ33" s="9">
@@ -4748,7 +4748,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="S2:T2"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="S1:X1"/>
@@ -4772,6 +4771,7 @@
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4803,37 +4803,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="23" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
@@ -6410,128 +6410,128 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22" t="s">
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22" t="s">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="22" t="s">
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22" t="s">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="23" t="s">
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22" t="s">
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22" t="s">
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="23" t="s">
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -10647,128 +10647,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="24" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="22" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22" t="s">
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
+      <c r="AL1" s="26"/>
+      <c r="AM1" s="26"/>
+      <c r="AN1" s="26"/>
+      <c r="AO1" s="26"/>
+      <c r="AP1" s="26"/>
+      <c r="AQ1" s="26"/>
+      <c r="AR1" s="26"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="24" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="25" t="s">
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="24" t="s">
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="25"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="22" t="s">
+      <c r="U2" s="28"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="22" t="s">
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22" t="s">
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26"/>
+      <c r="AE2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22" t="s">
+      <c r="AF2" s="26"/>
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="22"/>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="22" t="s">
+      <c r="AI2" s="26"/>
+      <c r="AJ2" s="26"/>
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AM2" s="22"/>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="23" t="s">
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -14193,60 +14193,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22" t="s">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22" t="s">
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
